--- a/locations.xlsx
+++ b/locations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>skill</t>
   </si>
@@ -34,6 +34,9 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -44,6 +47,12 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>European Union</t>
   </si>
   <si>
     <t>China</t>
@@ -57,84 +66,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,9 +95,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +180,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -209,14 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,45 +427,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -484,16 +457,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -522,151 +495,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,28 +815,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>United Arab Emirates</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Singapore</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>United Kingdom</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>European Union</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>United States</c:v>
                 </c:pt>
               </c:strCache>
@@ -842,29 +853,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4503</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4866</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8026</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9113</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>14862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>50458</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>153925</c:v>
                 </c:pt>
               </c:numCache>
@@ -881,11 +901,11 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="321928467"/>
-        <c:axId val="33533993"/>
+        <c:axId val="510258559"/>
+        <c:axId val="533829285"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321928467"/>
+        <c:axId val="510258559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33533993"/>
+        <c:crossAx val="533829285"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33533993"/>
+        <c:axId val="533829285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321928467"/>
+        <c:crossAx val="510258559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1582,24 +1602,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>554990</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3943350" y="208915"/>
-        <a:ext cx="4292600" cy="2929890"/>
+        <a:off x="3663315" y="133350"/>
+        <a:ext cx="4554220" cy="3522345"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1870,13 +1890,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.8504672897196" customWidth="1"/>
     <col min="2" max="2" width="20.9626168224299" customWidth="1"/>
@@ -1913,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4503</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1924,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4866</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1935,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8026</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1946,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>9113</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1957,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>50458</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1968,16 +1988,52 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>14862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>50275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>50458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>153925</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C8">
-    <sortState ref="A2:C8">
+    <sortState ref="A1:C8">
       <sortCondition ref="C2"/>
     </sortState>
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:C11">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>skill</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Finland</t>
   </si>
   <si>
     <t>Japan</t>
@@ -68,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,8 +83,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,15 +93,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,9 +106,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,21 +130,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,21 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +211,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,6 +236,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,31 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,78 +386,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,43 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,17 +430,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,21 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +530,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -822,31 +825,31 @@
                   <c:v>United Arab Emirates</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Japan</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Singapore</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Netherlands</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>United Kingdom</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Germany</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>European Union</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>United States</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -861,31 +864,31 @@
                   <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2830</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4503</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4866</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8026</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9113</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14862</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>50275</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>50458</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>153925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -1933,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2830</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1944,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4503</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1955,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4866</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1966,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8026</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1977,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>9113</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1988,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>14862</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1999,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>50275</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2010,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>50458</v>
+        <v>50275</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2021,17 +2024,28 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>50458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>153925</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8">
-    <sortState ref="A1:C8">
+  <autoFilter ref="A1:C11">
+    <sortState ref="A1:C11">
       <sortCondition ref="C2"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C11">
+  <sortState ref="A2:C12">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20632" windowHeight="7920"/>
+    <workbookView windowWidth="19966" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,17 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,15 +97,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +128,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,41 +175,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +200,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +236,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +326,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,39 +459,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +502,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -530,15 +530,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,9 +818,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>United Arab Emirates</c:v>
                 </c:pt>
@@ -850,16 +850,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>United States</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>565</c:v>
                 </c:pt>
@@ -889,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>50458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,11 +910,11 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="510258559"/>
-        <c:axId val="533829285"/>
+        <c:axId val="998275892"/>
+        <c:axId val="434416356"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510258559"/>
+        <c:axId val="998275892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +955,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533829285"/>
+        <c:crossAx val="434416356"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533829285"/>
+        <c:axId val="434416356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1013,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510258559"/>
+        <c:crossAx val="998275892"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,24 +1611,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3663315" y="133350"/>
-        <a:ext cx="4554220" cy="3522345"/>
+        <a:off x="3733800" y="276860"/>
+        <a:ext cx="4471035" cy="2719705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1896,7 +1902,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B1" sqref="B1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -2039,8 +2045,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C11">
-    <sortState ref="A1:C11">
+  <autoFilter ref="A1:C12">
+    <sortState ref="A2:C12">
       <sortCondition ref="C2"/>
     </sortState>
     <extLst/>
